--- a/SHGraduationWarning/Template/學期成績匯入檔樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績匯入檔樣板.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evang\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA0C576-63E3-410E-B09C-AF3E41B8942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CCEF53-273E-4309-8917-298E38C27F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9D29B33-8A43-4C48-AF15-A43D4227393C}"/>
   </bookViews>
   <sheets>
-    <sheet name="學期成績匯入檔" sheetId="1" r:id="rId1"/>
+    <sheet name="學期科目成績匯入檔" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/SHGraduationWarning/Template/學期成績匯入檔樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績匯入檔樣板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CCEF53-273E-4309-8917-298E38C27F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84557F36-3ABA-482F-A895-21BE5F438374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9D29B33-8A43-4C48-AF15-A43D4227393C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>學生系統編號</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>課程代碼</t>
+  </si>
+  <si>
+    <t>分項類別</t>
+  </si>
+  <si>
+    <t>校部訂</t>
+  </si>
+  <si>
+    <t>必選修</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6E5AF-6710-43FC-828D-085D6E2FA9CF}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +464,10 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,12 +502,21 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/SHGraduationWarning/Template/學期成績匯入檔樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績匯入檔樣板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84557F36-3ABA-482F-A895-21BE5F438374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD832B20-3E9C-4647-AB42-4D229994E890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9D29B33-8A43-4C48-AF15-A43D4227393C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>學生系統編號</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>必選修</t>
+  </si>
+  <si>
+    <t>報部科目名稱</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6E5AF-6710-43FC-828D-085D6E2FA9CF}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -467,7 +470,7 @@
     <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,6 +521,9 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
